--- a/biology/Botanique/Hydrocharitaceae/Hydrocharitaceae.xlsx
+++ b/biology/Botanique/Hydrocharitaceae/Hydrocharitaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Hydrocharitacées ou Hydrocharidacées  comprend une centaine d'espèces de plantes aquatiques réparties en une vingtaine de genres. Parfois stolonifères, elles possèdent un rhizome monopodial rampant aux feuilles disposées sur deux rangées verticales, ou un rameau principal érigé avec des racines basales et feuillé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Hydrocharitacées ou Hydrocharidacées  comprend une centaine d'espèces de plantes aquatiques réparties en une vingtaine de genres. Parfois stolonifères, elles possèdent un rhizome monopodial rampant aux feuilles disposées sur deux rangées verticales, ou un rameau principal érigé avec des racines basales et feuillé.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom est formé sur celui du genre Hydrocharis, qui vient des mots grecs hydro, « eau », et charis, « grâce, beauté »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom est formé sur celui du genre Hydrocharis, qui vient des mots grecs hydro, « eau », et charis, « grâce, beauté ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique a fait des Najadacées une des six sous-familles des Hydrocharitacées.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois de ces genres, Enhalus, Halophila et Thalassia, sont exclusivement marins et comptent une vingtaine d'espèces.
 Dans les eaux douces continentales, on peut citer, en France, la grenouillette, plante flottante du genre Hydrocharis, la châtaigne d'eau, autre plante flottante du genre Stratiotes, la vallisnérie spiralée du genre Vallisneria et l'élodée du Canada, plante submergée exotique (orignaire d'Amérique du Nord) du genre Elodea. Ces plantes vivent dans les eaux calmes des bords de rives.
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 nov. 2015)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 nov. 2015) :
 genre Apalanthe Planch
 genre Appertiella C.D.K.Cook &amp; Triest
 genre Blyxa Noronha ex Thouars (1806)
@@ -629,7 +649,7 @@
 genre Stratiotes L. (1753)
 genre Thalassia Banks &amp; Sol. ex K.D.Koenig (1805)
 genre Vallisneria P.Micheli ex L. (1753)
-Selon Angiosperm Phylogeny Website                        (20 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (20 mai 2010) :
 genre Apalanthe Planch.
 genre Appertiella C.D.K.Cook &amp; Triest
 genre Blyxa Noronha ex Thouars
@@ -650,7 +670,7 @@
 genre Stratiotes L.
 genre Thalassia Banks ex C.Koenig
 genre Vallisneria L.
-Selon NCBI  (18 nov. 2015)[5] :
+Selon NCBI  (18 nov. 2015) :
 genre Apalanthe
 genre Blyxa
 genre Egeria
@@ -668,7 +688,7 @@
 genre Stratiotes
 genre Thalassia
 genre Vallisneria
-Selon DELTA Angio           (18 nov. 2015)[6] :
+Selon DELTA Angio           (18 nov. 2015) :
 genre Apalanthe
 genre Appertiella
 genre Blyxa
@@ -686,7 +706,7 @@
 genre Stratiotes
 genre Thalassia
 genre Vallisneria
-Selon ITIS      (18 nov. 2015)[7] :
+Selon ITIS      (18 nov. 2015) :
 genre Blyxa Noronha ex Thouars
 genre Egeria Planch.
 genre Elodea Michx.
